--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Tmp&gt;" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
   <si>
     <t>Formula</t>
   </si>
@@ -68,6 +68,24 @@
     <t>2Cs+2H2O==H2+2CsOH</t>
   </si>
   <si>
+    <t>Fe2O3+3CO==2Fe+3CO2</t>
+  </si>
+  <si>
+    <t>Fe3O4+4CO==3Fe+4CO2</t>
+  </si>
+  <si>
+    <t>Fe2O3+3H2==2Fe+3H2O</t>
+  </si>
+  <si>
+    <t>Fe3O4+4H2==3Fe+4H2O</t>
+  </si>
+  <si>
+    <t>2H2O==2H2+O2</t>
+  </si>
+  <si>
+    <t>2Al2O3+3C==4Al+3CO2</t>
+  </si>
+  <si>
     <t>4Li+O2==2Li2O</t>
   </si>
   <si>
@@ -173,12 +191,6 @@
     <t>C+O2==CO2</t>
   </si>
   <si>
-    <t>2C+O2==2CO</t>
-  </si>
-  <si>
-    <t>C+2CuO==2Cu+CO2</t>
-  </si>
-  <si>
     <t>3C+2Fe2O3==4Fe+3CO2</t>
   </si>
   <si>
@@ -255,9 +267,6 @@
   </si>
   <si>
     <t>2Fe+O2+2H2O==2Fe(OH)2</t>
-  </si>
-  <si>
-    <t>CuO+CO==Cu+CO2</t>
   </si>
   <si>
     <t>CuO+H2==Cu+H2O</t>
@@ -457,9 +466,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -479,23 +488,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,22 +510,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,6 +528,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,27 +562,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,12 +580,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -661,31 +670,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,151 +826,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,36 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -939,6 +918,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,15 +961,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -995,6 +974,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1003,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1530,7 +1539,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1572,10 +1581,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1669,6 +1678,54 @@
       </c>
       <c r="D10" s="4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1775,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1726,7 +1783,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1734,7 +1791,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1742,7 +1799,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1750,7 +1807,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1758,7 +1815,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1766,7 +1823,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1774,7 +1831,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1782,7 +1839,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1793,7 +1850,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1801,7 +1858,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1809,7 +1866,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1817,7 +1874,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1825,7 +1882,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1833,7 +1890,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1841,7 +1898,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1849,7 +1906,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1857,7 +1914,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1865,7 +1922,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1873,7 +1930,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1881,7 +1938,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1889,7 +1946,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1897,7 +1954,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1912,10 +1969,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1950,7 +2007,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1964,7 +2021,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4">
         <v>12</v>
@@ -1972,7 +2029,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F4" s="6">
         <v>20</v>
@@ -1980,7 +2037,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1991,22 +2048,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -2014,160 +2071,166 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="4">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="4">
-        <v>35</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2175,7 +2238,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2183,15 +2246,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2199,23 +2262,23 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2223,55 +2286,55 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -2279,7 +2342,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2287,7 +2350,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -2295,39 +2358,39 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -2335,47 +2398,47 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -2383,7 +2446,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -2391,7 +2454,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -2399,7 +2462,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -2407,7 +2470,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -2415,15 +2478,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -2431,7 +2494,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -2439,15 +2502,15 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -2455,7 +2518,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -2463,7 +2526,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -2471,7 +2534,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -2479,7 +2542,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -2487,7 +2550,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -2495,7 +2558,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -2503,23 +2566,23 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -2527,31 +2590,31 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -2559,7 +2622,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -2567,15 +2630,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -2583,7 +2646,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -2591,7 +2654,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -2599,7 +2662,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -2607,7 +2670,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -2615,7 +2678,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -2623,7 +2686,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -2631,7 +2694,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -2639,23 +2702,23 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -2663,23 +2726,23 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -2687,15 +2750,15 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -2703,7 +2766,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -2711,41 +2774,17 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2835,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -2804,7 +2843,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -2812,7 +2851,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2820,7 +2859,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -2828,7 +2867,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2836,7 +2875,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Reaction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
   <si>
     <t>Formula</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Elec</t>
+  </si>
+  <si>
+    <t>Vigorousness</t>
   </si>
   <si>
     <t>必要的反应式有</t>
@@ -544,9 +547,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +583,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,8 +614,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,15 +656,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,46 +670,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,22 +683,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -726,37 +729,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,73 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,61 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,21 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -983,41 +971,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,8 +993,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1037,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1062,145 +1065,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1637,7 +1640,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G6" sqref="G6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1661,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -1670,18 +1673,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1690,7 +1693,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1699,18 +1702,18 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1719,18 +1722,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1775,17 +1778,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1832,17 +1835,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2032,7 +2038,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2040,7 +2046,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2056,7 +2062,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -2072,7 +2078,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -2080,12 +2086,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -2101,7 +2107,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -2117,7 +2123,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -2125,7 +2131,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -2133,7 +2139,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -2141,7 +2147,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -2197,18 +2203,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -2217,7 +2223,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2226,12 +2232,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4">
         <v>16</v>
@@ -2240,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2249,7 +2255,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4">
         <v>30</v>
@@ -2258,12 +2264,12 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
@@ -2272,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2281,7 +2287,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4">
         <v>25</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2356,7 +2362,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2428,18 +2434,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -2448,18 +2454,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2468,24 +2474,24 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2494,7 +2500,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -2518,28 +2524,28 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2582,7 +2588,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2648,7 +2654,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4">
         <v>30</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="6">
         <v>20</v>
@@ -2664,37 +2670,37 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -2710,7 +2716,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2750,7 +2756,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2758,7 +2764,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2766,7 +2772,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2774,7 +2780,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2782,7 +2788,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2806,7 +2812,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -2826,7 +2832,7 @@
     </row>
     <row r="26" customFormat="1" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2858,7 +2864,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -2882,7 +2888,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -2890,7 +2896,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2930,7 +2936,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -2983,7 +2989,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2991,7 +2997,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -3007,7 +3013,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -3015,7 +3021,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -3023,7 +3029,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3031,7 +3037,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -3063,7 +3069,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -3079,7 +3085,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
@@ -3140,7 +3146,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -3156,7 +3162,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -3164,7 +3170,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -3172,7 +3178,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
